--- a/arduino_material/iv/iv_plot.xlsx
+++ b/arduino_material/iv/iv_plot.xlsx
@@ -1,780 +1,283 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19185" windowHeight="8640"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Supply Voltage</t>
+    <t xml:space="preserve">Supply Voltage</t>
   </si>
   <si>
-    <t>DUT Voltage</t>
+    <t xml:space="preserve">DUT Voltage</t>
   </si>
   <si>
-    <t>Current</t>
+    <t xml:space="preserve">Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="7">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="14"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B9BD5"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
+              </a:rPr>
+              <a:t>IV Characteristics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="5b9bd5"/>
+            </a:solidFill>
+            <a:ln w="19080">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="5b9bd5"/>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$411</c:f>
@@ -3255,20 +2758,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="r"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="301823944"/>
-        <c:axId val="14285185"/>
+        <c:axId val="58601973"/>
+        <c:axId val="88580587"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301823944"/>
+        <c:axId val="58601973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,61 +2770,88 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9360">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Voltage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9360">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="bfbfbf"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14285185"/>
+        <c:crossAx val="88580587"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14285185"/>
+        <c:axId val="88580587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,56 +2859,83 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="9360">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:srgbClr val="d9d9d9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Current</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9360">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="bfbfbf"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" kern="1200">
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="595959"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301823944"/>
+        <c:crossAx val="58601973"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3396,609 +2944,28 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="9360">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:srgbClr val="d9d9d9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-IN" sz="1000" kern="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4007,18 +2974,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="0" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3943350" y="342900"/>
-        <a:ext cx="6372225" cy="3989705"/>
+        <a:off x="4628880" y="342720"/>
+        <a:ext cx="7400880" cy="3989520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4031,4800 +2998,4551 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:C$1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="14.25" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="14.3522267206478"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>0.03</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>0.07</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>0.05</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>0.07</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>0.12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>0.11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>0.13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>0.16</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>0.02</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>0.17</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>0.16</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>0.17</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>0.19</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>0.22</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>0.23</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>0.21</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>0.22</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>0.26</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>0.24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>0.27</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>0.28</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>0.26</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>0.29</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>0.27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>0.31</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>0.29</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>0.31</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>0.34</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>0.33</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>0.35</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>0.37</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>0.38</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>0.39</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>0.42</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>0.42</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>0.42</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>0.45</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>0.43</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>0.44</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>0.48</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>0.49</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>0.48</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>0.49</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>0.51</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>0.49</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>0.52</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>0.54</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>0.52</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>0.53</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>0.55</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+    <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>0.57</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>0.57</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>0.59</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>0.61</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>0.63</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>0.64</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>0.68</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>0.66</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>0.68</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>0.69</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>0.73</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>0.73</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>0.76</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>0.77</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>0.76</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>0.78</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0" t="n">
         <v>0.77</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0" t="n">
         <v>0.78</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0" t="n">
         <v>0.79</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
         <v>0.84</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0" t="n">
         <v>0.83</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
         <v>0.85</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0" t="n">
         <v>0.84</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0" t="n">
         <v>0.85</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0" t="n">
         <v>0.86</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
         <v>0.89</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0" t="n">
         <v>0.87</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0" t="n">
         <v>0.89</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0" t="n">
         <v>0.91</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79">
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
         <v>0.94</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80">
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
         <v>0.95</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0" t="n">
         <v>0.94</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81">
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0" t="n">
         <v>0.95</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
         <v>0.98</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0" t="n">
         <v>0.96</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
         <v>0.99</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0" t="n">
         <v>0.97</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0" t="n">
         <v>0.99</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
         <v>1.03</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0" t="n">
         <v>1.01</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
         <v>1.04</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0" t="n">
         <v>1.02</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
         <v>1.05</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0" t="n">
         <v>1.04</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
         <v>1.06</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0" t="n">
         <v>1.04</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0" t="n">
         <v>1.05</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
         <v>1.09</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0" t="n">
         <v>1.07</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
         <v>1.1</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0" t="n">
         <v>1.08</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93">
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
         <v>1.11</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="0" t="n">
         <v>1.1</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94">
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0" t="n">
         <v>1.11</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95">
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
         <v>1.14</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0" t="n">
         <v>1.12</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96">
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
         <v>1.15</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0" t="n">
         <v>1.13</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97">
+    <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
         <v>1.16</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0" t="n">
         <v>1.14</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98">
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
         <v>1.17</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0" t="n">
         <v>1.16</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99">
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
         <v>1.18</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0" t="n">
         <v>1.17</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100">
+    <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
         <v>1.2</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0" t="n">
         <v>1.18</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101">
+    <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0" t="n">
         <v>1.19</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102">
+    <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
         <v>1.22</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0" t="n">
         <v>1.21</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103">
+    <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0" t="n">
         <v>1.22</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104">
+    <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
         <v>1.25</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0" t="n">
         <v>1.23</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105">
+    <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
         <v>1.26</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0" t="n">
         <v>1.24</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106">
+    <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
         <v>1.27</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0" t="n">
         <v>1.25</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107">
+    <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
         <v>1.28</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0" t="n">
         <v>1.26</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108">
+    <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
         <v>1.29</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0" t="n">
         <v>1.27</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109">
+    <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
         <v>1.31</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0" t="n">
         <v>1.29</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110">
+    <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
         <v>1.32</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0" t="n">
         <v>1.3</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111">
+    <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
         <v>1.33</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0" t="n">
         <v>1.32</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112">
+    <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
         <v>1.34</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0" t="n">
         <v>1.33</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113">
+    <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
         <v>1.35</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0" t="n">
         <v>1.34</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114">
+    <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
         <v>1.37</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0" t="n">
         <v>1.35</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115">
+    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
         <v>1.38</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0" t="n">
         <v>1.36</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116">
+    <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
         <v>1.39</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0" t="n">
         <v>1.37</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
+    <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0" t="n">
         <v>1.39</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118">
+    <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
         <v>1.42</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119">
+    <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
         <v>1.43</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0" t="n">
         <v>1.42</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120">
+    <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
         <v>1.44</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0" t="n">
         <v>1.43</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121">
+    <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
         <v>1.45</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0" t="n">
         <v>1.44</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122">
+    <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
         <v>1.46</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0" t="n">
         <v>1.46</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123">
+    <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
         <v>1.48</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0" t="n">
         <v>1.46</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124">
+    <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
         <v>1.49</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0" t="n">
         <v>1.47</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125">
+    <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0" t="n">
         <v>1.48</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126">
+    <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
         <v>1.51</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
+    <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
         <v>1.53</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0" t="n">
         <v>1.51</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128">
+    <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
         <v>1.54</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0" t="n">
         <v>1.52</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129">
+    <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
         <v>1.55</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0" t="n">
         <v>1.53</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130">
+    <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
         <v>1.56</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0" t="n">
         <v>1.55</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131">
+    <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
         <v>1.57</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0" t="n">
         <v>1.56</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132">
+    <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
         <v>1.59</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0" t="n">
         <v>1.57</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133">
+    <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0" t="n">
         <v>1.59</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134">
+    <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
         <v>1.61</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0" t="n">
         <v>1.6</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0" t="n">
         <v>0.03</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
+    <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0" t="n">
         <v>1.61</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
+    <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
         <v>1.64</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0" t="n">
         <v>1.62</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137">
+    <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
         <v>1.65</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0" t="n">
         <v>1.64</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138">
+    <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
         <v>1.66</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0" t="n">
         <v>1.65</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139">
+    <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0" t="n">
         <v>1.66</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140">
+    <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
         <v>1.68</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0" t="n">
         <v>1.67</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141">
+    <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0" t="n">
         <v>1.68</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142">
+    <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
         <v>1.71</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0" t="n">
         <v>1.69</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143">
+    <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
         <v>1.72</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0" t="n">
         <v>1.71</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144">
+    <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
         <v>1.73</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0" t="n">
         <v>1.71</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145">
+    <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0" t="n">
         <v>1.73</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146">
+    <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
         <v>1.76</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0" t="n">
         <v>1.74</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147">
+    <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
         <v>1.77</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0" t="n">
         <v>1.75</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148">
+    <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
         <v>1.78</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0" t="n">
         <v>1.77</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149">
+    <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
         <v>1.79</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0" t="n">
         <v>1.78</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150">
+    <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0" t="n">
         <v>1.79</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151">
+    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0" t="n">
         <v>1.8</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152">
+    <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
         <v>1.83</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0" t="n">
         <v>1.81</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153">
+    <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
         <v>1.84</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0" t="n">
         <v>1.83</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154">
+    <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0" t="n">
         <v>1.84</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155">
+    <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
         <v>1.87</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0" t="n">
         <v>1.85</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
+    <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
         <v>1.88</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0" t="n">
         <v>1.86</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
+    <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
         <v>1.89</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0" t="n">
         <v>1.88</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
+    <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0" t="n">
         <v>1.89</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
+    <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
         <v>1.92</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0" t="n">
         <v>1.9</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
+    <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
         <v>1.93</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0" t="n">
         <v>1.91</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
+    <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
         <v>1.94</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0" t="n">
         <v>1.92</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
+    <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
         <v>1.95</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0" t="n">
         <v>1.94</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
+    <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
         <v>1.97</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0" t="n">
         <v>1.95</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
+    <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
         <v>1.98</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0" t="n">
         <v>1.96</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
+    <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
         <v>1.99</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0" t="n">
         <v>1.97</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
+    <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0" t="n">
         <v>1.99</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
+    <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
         <v>2.01</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
+    <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
         <v>2.03</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0" t="n">
         <v>2.01</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
+    <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0" t="n">
         <v>2.02</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
+    <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
         <v>2.05</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0" t="n">
         <v>2.04</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
+    <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
         <v>2.06</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0" t="n">
         <v>2.05</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
+    <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
         <v>2.08</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0" t="n">
         <v>2.06</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
+    <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
         <v>2.09</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0" t="n">
         <v>2.07</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
+    <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0" t="n">
         <v>2.08</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
+    <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
         <v>2.11</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0" t="n">
         <v>2.09</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
+    <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
         <v>2.12</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0" t="n">
         <v>2.1</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
+    <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
         <v>2.14</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0" t="n">
         <v>2.12</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
+    <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
         <v>2.15</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0" t="n">
         <v>2.13</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
+    <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
         <v>2.16</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0" t="n">
         <v>2.14</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
+    <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
         <v>2.17</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0" t="n">
         <v>2.15</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
+    <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
         <v>2.19</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0" t="n">
         <v>2.16</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182">
+    <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0" t="n">
         <v>2.18</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183">
+    <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
         <v>2.21</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0" t="n">
         <v>2.19</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184">
+    <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
         <v>2.22</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0" t="n">
         <v>2.2</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185">
+    <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
         <v>2.23</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0" t="n">
         <v>2.22</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186">
+    <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
         <v>2.25</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0" t="n">
         <v>2.23</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187">
+    <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
         <v>2.26</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0" t="n">
         <v>2.24</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188">
+    <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
         <v>2.27</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0" t="n">
         <v>2.25</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189">
+    <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
         <v>2.28</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0" t="n">
         <v>2.27</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0" t="n">
         <v>0.06</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190">
+    <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
         <v>2.29</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0" t="n">
         <v>2.28</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191">
+    <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
         <v>2.31</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0" t="n">
         <v>2.29</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="A192">
+    <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
         <v>2.32</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0" t="n">
         <v>2.29</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="A193">
+    <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
         <v>2.33</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0" t="n">
         <v>2.31</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="A194">
+    <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
         <v>2.34</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0" t="n">
         <v>2.32</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195">
+    <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
         <v>2.36</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0" t="n">
         <v>2.33</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196">
+    <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
         <v>2.37</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0" t="n">
         <v>2.34</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197">
+    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
         <v>2.38</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0" t="n">
         <v>2.35</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198">
+    <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
         <v>2.39</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0" t="n">
         <v>2.37</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199">
+    <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0" t="n">
         <v>2.38</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0" t="n">
         <v>0.09</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200">
+    <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0" t="n">
         <v>2.39</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
-      <c r="A201">
+    <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
         <v>2.43</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0" t="n">
         <v>2.4</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0" t="n">
         <v>0.11</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202">
+    <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
         <v>2.44</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0" t="n">
         <v>2.41</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0" t="n">
         <v>0.1</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203">
+    <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204">
+    <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
         <v>2.47</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0" t="n">
         <v>2.43</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205">
+    <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
         <v>2.48</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0" t="n">
         <v>2.44</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0" t="n">
         <v>0.14</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206">
+    <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0" t="n">
         <v>2.45</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207">
+    <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0" t="n">
         <v>2.46</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208">
+    <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
         <v>2.51</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0" t="n">
         <v>2.47</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0" t="n">
         <v>0.16</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209">
+    <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
         <v>2.53</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0" t="n">
         <v>2.48</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0" t="n">
         <v>0.17</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210">
+    <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
         <v>2.54</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0" t="n">
         <v>0.18</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211">
+    <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
         <v>2.55</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0" t="n">
         <v>2.49</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212">
+    <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
         <v>2.56</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0" t="n">
         <v>0.21</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213">
+    <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0" t="n">
         <v>2.5</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0" t="n">
         <v>0.24</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214">
+    <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0" t="n">
         <v>2.51</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0" t="n">
         <v>0.24</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215">
+    <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0" t="n">
         <v>2.52</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0" t="n">
         <v>0.27</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216">
+    <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0" t="n">
         <v>2.52</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0" t="n">
         <v>0.29</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217">
+    <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0" t="n">
         <v>2.53</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218">
+    <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0" t="n">
         <v>2.54</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0" t="n">
         <v>0.33</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219">
+    <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0" t="n">
         <v>2.54</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220">
+    <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0" t="n">
         <v>2.54</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0" t="n">
         <v>0.39</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221">
+    <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0" t="n">
         <v>2.55</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222">
+    <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0" t="n">
         <v>2.56</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0" t="n">
         <v>0.42</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223">
+    <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0" t="n">
         <v>2.56</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0" t="n">
         <v>0.45</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224">
+    <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0" t="n">
         <v>2.57</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0" t="n">
         <v>0.47</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225">
+    <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0" t="n">
         <v>2.57</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226">
+    <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0" t="n">
         <v>0.52</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227">
+    <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0" t="n">
         <v>2.58</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0" t="n">
         <v>0.55</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228">
+    <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0" t="n">
         <v>0.57</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229">
+    <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
         <v>2.77</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0" t="n">
         <v>0.61</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230">
+    <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
         <v>2.78</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0" t="n">
         <v>0.65</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231">
+    <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0" t="n">
         <v>2.59</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0" t="n">
         <v>0.68</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232">
+    <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
         <v>2.81</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233">
+    <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
         <v>2.82</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0" t="n">
         <v>2.6</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0" t="n">
         <v>0.72</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234">
+    <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
         <v>2.83</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235">
+    <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
         <v>2.84</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0" t="n">
         <v>0.79</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236">
+    <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
         <v>2.86</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0" t="n">
         <v>2.61</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0" t="n">
         <v>0.81</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237">
+    <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
         <v>2.87</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0" t="n">
         <v>0.84</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238">
+    <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
         <v>2.88</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0" t="n">
         <v>0.88</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239">
+    <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
         <v>2.89</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240">
+    <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
         <v>2.91</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0" t="n">
         <v>0.94</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
-      <c r="A241">
+    <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
         <v>2.92</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0" t="n">
         <v>2.62</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0" t="n">
         <v>0.98</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242">
+    <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
         <v>2.93</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0" t="n">
         <v>1.01</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
-      <c r="A243">
+    <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
         <v>2.94</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0" t="n">
         <v>1.03</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244">
+    <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
         <v>2.95</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0" t="n">
         <v>1.07</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245">
+    <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
         <v>2.97</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0" t="n">
         <v>1.1</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246">
+    <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
         <v>2.98</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0" t="n">
         <v>1.14</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247">
+    <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
         <v>2.99</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0" t="n">
         <v>1.18</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248">
+    <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0" t="n">
         <v>2.64</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249">
+    <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
         <v>3.02</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0" t="n">
         <v>1.23</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250">
+    <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
         <v>3.03</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0" t="n">
         <v>1.27</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="A251">
+    <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
         <v>3.04</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0" t="n">
         <v>1.31</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252">
+    <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
         <v>3.05</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0" t="n">
         <v>1.33</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
-      <c r="A253">
+    <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
         <v>3.06</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0" t="n">
         <v>1.39</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
-      <c r="A254">
+    <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
         <v>3.08</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0" t="n">
         <v>2.65</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0" t="n">
         <v>1.42</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255">
+    <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
         <v>3.09</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0" t="n">
         <v>1.44</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
-      <c r="A256">
+    <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
         <v>3.1</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0" t="n">
         <v>1.48</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257">
+    <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="n">
         <v>3.11</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0" t="n">
         <v>1.52</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
-      <c r="A258">
+    <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="n">
         <v>3.13</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0" t="n">
         <v>1.55</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
-      <c r="A259">
+    <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="n">
         <v>3.14</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260">
+    <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="n">
         <v>3.15</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0" t="n">
         <v>1.63</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261">
+    <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="n">
         <v>3.16</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0" t="n">
         <v>1.65</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
-      <c r="A262">
+    <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="n">
         <v>3.17</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0" t="n">
         <v>2.66</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0" t="n">
         <v>1.71</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="A263">
+    <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="n">
         <v>3.19</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0" t="n">
         <v>1.72</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264">
+    <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0" t="n">
         <v>1.76</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
-      <c r="A265">
+    <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="n">
         <v>3.21</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0" t="n">
         <v>1.78</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
-      <c r="A266">
+    <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="n">
         <v>3.22</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0" t="n">
         <v>1.86</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
-      <c r="A267">
+    <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="n">
         <v>3.23</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0" t="n">
         <v>1.86</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268">
+    <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="n">
         <v>3.25</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="A269">
+    <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="n">
         <v>3.26</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0" t="n">
         <v>1.94</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270">
+    <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="n">
         <v>3.27</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0" t="n">
         <v>2.67</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
-      <c r="A271">
+    <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="n">
         <v>3.28</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0" t="n">
         <v>2.01</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272">
+    <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0" t="n">
         <v>2.05</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
-      <c r="A273">
+    <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="n">
         <v>3.31</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0" t="n">
         <v>2.09</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
-      <c r="A274">
+    <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="n">
         <v>3.32</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0" t="n">
         <v>2.12</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
-      <c r="A275">
+    <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="n">
         <v>3.33</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0" t="n">
         <v>2.68</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0" t="n">
         <v>2.17</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
-      <c r="A276">
+    <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="n">
         <v>3.34</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
-      <c r="A277">
+    <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="n">
         <v>3.36</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0" t="n">
         <v>2.24</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
-      <c r="A278">
+    <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="n">
         <v>3.37</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0" t="n">
         <v>2.28</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
-      <c r="A279">
+    <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="n">
         <v>3.38</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280">
+    <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="n">
         <v>3.39</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0" t="n">
         <v>2.34</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
-      <c r="A281">
+    <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="n">
         <v>3.41</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0" t="n">
         <v>2.38</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="A282">
+    <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="n">
         <v>3.42</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0" t="n">
         <v>2.43</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
-      <c r="A283">
+    <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="n">
         <v>3.43</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0" t="n">
         <v>2.47</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
-      <c r="A284">
+    <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="n">
         <v>3.44</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0" t="n">
         <v>2.51</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
-      <c r="A285">
+    <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="n">
         <v>3.45</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0" t="n">
         <v>2.53</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
-      <c r="A286">
+    <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="n">
         <v>3.47</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0" t="n">
         <v>2.69</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0" t="n">
         <v>2.59</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
-      <c r="A287">
+    <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="n">
         <v>3.48</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0" t="n">
         <v>2.61</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288">
+    <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="n">
         <v>3.49</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0" t="n">
         <v>2.65</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
-      <c r="A289">
+    <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0" t="n">
         <v>2.68</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290">
+    <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="n">
         <v>3.52</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0" t="n">
         <v>2.72</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
-      <c r="A291">
+    <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="n">
         <v>3.53</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0" t="n">
         <v>2.78</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292">
+    <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="n">
         <v>3.54</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
-      <c r="A293">
+    <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="n">
         <v>3.55</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0" t="n">
         <v>2.86</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
-      <c r="A294">
+    <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="n">
         <v>3.56</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0" t="n">
         <v>2.86</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
-      <c r="A295">
+    <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="n">
         <v>3.58</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0" t="n">
         <v>2.91</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
-      <c r="A296">
+    <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="n">
         <v>3.59</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="0" t="n">
         <v>2.95</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
-      <c r="A297">
+    <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="n">
         <v>3.6</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="0" t="n">
         <v>2.7</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
-      <c r="A298">
+    <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="n">
         <v>3.61</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="0" t="n">
         <v>3.03</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299">
+    <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="n">
         <v>3.63</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="0" t="n">
         <v>3.07</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300">
+    <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="n">
         <v>3.64</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="0" t="n">
         <v>3.09</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
-      <c r="A301">
+    <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="n">
         <v>3.65</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="0" t="n">
         <v>3.13</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302">
+    <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="n">
         <v>3.66</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="0" t="n">
         <v>3.19</v>
       </c>
     </row>
-    <row r="303" spans="1:3">
-      <c r="A303">
+    <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="n">
         <v>3.67</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="0" t="n">
         <v>3.23</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304">
+    <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="n">
         <v>3.69</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="0" t="n">
         <v>3.26</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305">
+    <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="n">
         <v>3.7</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="0" t="n">
         <v>3.28</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306">
+    <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="n">
         <v>3.71</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="0" t="n">
         <v>3.34</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307">
+    <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="n">
         <v>3.72</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="0" t="n">
         <v>3.38</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
-      <c r="A308">
+    <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="n">
         <v>3.74</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="0" t="n">
         <v>3.4</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="A309">
+    <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="n">
         <v>3.75</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="0" t="n">
         <v>3.44</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
-      <c r="A310">
+    <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="n">
         <v>3.76</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="0" t="n">
         <v>3.48</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
-      <c r="A311">
+    <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="n">
         <v>3.77</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="0" t="n">
         <v>3.52</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
-      <c r="A312">
+    <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="n">
         <v>3.78</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="0" t="n">
         <v>3.55</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
-      <c r="A313">
+    <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="n">
         <v>3.8</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="0" t="n">
         <v>3.59</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
-      <c r="A314">
+    <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="n">
         <v>3.81</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="0" t="n">
         <v>3.65</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
-      <c r="A315">
+    <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="n">
         <v>3.82</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="0" t="n">
         <v>3.67</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
-      <c r="A316">
+    <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="n">
         <v>3.83</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="0" t="n">
         <v>3.73</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
-      <c r="A317">
+    <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="n">
         <v>3.85</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="0" t="n">
         <v>3.77</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
-      <c r="A318">
+    <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="n">
         <v>3.86</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="0" t="n">
         <v>3.79</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
-      <c r="A319">
+    <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="n">
         <v>3.87</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="0" t="n">
         <v>3.82</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
-      <c r="A320">
+    <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="n">
         <v>3.88</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="0" t="n">
         <v>3.86</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
-      <c r="A321">
+    <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="n">
         <v>3.89</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="0" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="A322">
+    <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="n">
         <v>3.91</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="0" t="n">
         <v>3.94</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="A323">
+    <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="n">
         <v>3.92</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324">
+    <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="n">
         <v>3.93</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="0" t="n">
         <v>4.04</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
-      <c r="A325">
+    <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="n">
         <v>3.94</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="0" t="n">
         <v>4.06</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="A326">
+    <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="n">
         <v>3.96</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="0" t="n">
         <v>4.09</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
-      <c r="A327">
+    <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="n">
         <v>3.97</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="0" t="n">
         <v>4.14</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="A328">
+    <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="n">
         <v>3.98</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="0" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="A329">
+    <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="n">
         <v>3.99</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="0" t="n">
         <v>4.22</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330">
+    <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="0" t="n">
         <v>4.26</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="A331">
+    <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="n">
         <v>4.02</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="0" t="n">
         <v>4.29</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332">
+    <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="n">
         <v>4.03</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="0" t="n">
         <v>4.35</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
-      <c r="A333">
+    <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="n">
         <v>4.04</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="0" t="n">
         <v>4.37</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="A334">
+    <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="n">
         <v>4.05</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="0" t="n">
         <v>2.72</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="0" t="n">
         <v>4.43</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="A335">
+    <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="n">
         <v>4.06</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="0" t="n">
         <v>4.45</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="A336">
+    <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="n">
         <v>4.08</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="0" t="n">
         <v>4.49</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="A337">
+    <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="n">
         <v>4.09</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="0" t="n">
         <v>4.52</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="A338">
+    <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="0" t="n">
         <v>4.57</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="A339">
+    <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
         <v>4.11</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="0" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="A340">
+    <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
         <v>4.13</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="0" t="n">
         <v>4.64</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="A341">
+    <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
         <v>4.14</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="0" t="n">
         <v>4.68</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="A342">
+    <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="n">
         <v>4.15</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="0" t="n">
         <v>4.72</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="A343">
+    <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
         <v>4.16</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="0" t="n">
         <v>4.76</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="A344">
+    <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
         <v>4.17</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="0" t="n">
         <v>4.82</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="A345">
+    <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
         <v>4.19</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="0" t="n">
         <v>4.84</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="A346">
+    <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
         <v>4.2</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="0" t="n">
         <v>4.88</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="A347">
+    <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
         <v>4.21</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="0" t="n">
         <v>4.91</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
-      <c r="A348">
+    <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
         <v>4.22</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="0" t="n">
         <v>4.96</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
-      <c r="A349">
+    <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
         <v>4.24</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
-      <c r="A350">
+    <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
         <v>4.25</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="0" t="n">
         <v>5.03</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="A351">
+    <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
         <v>4.26</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="0" t="n">
         <v>2.73</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="0" t="n">
         <v>5.09</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
-      <c r="A352">
+    <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
         <v>4.27</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="0" t="n">
         <v>5.11</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
-      <c r="A353">
+    <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
         <v>4.28</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="0" t="n">
         <v>5.14</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="A354">
+    <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
         <v>4.3</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="0" t="n">
         <v>5.19</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="A355">
+    <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
         <v>4.31</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="0" t="n">
         <v>5.23</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="A356">
+    <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
         <v>4.32</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="0" t="n">
         <v>5.26</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="A357">
+    <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
         <v>4.33</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="0" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="A358">
+    <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="n">
         <v>4.35</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="0" t="n">
         <v>5.35</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="A359">
+    <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
         <v>4.36</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="0" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
-      <c r="A360">
+    <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="n">
         <v>4.37</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="0" t="n">
         <v>5.42</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="A361">
+    <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="n">
         <v>4.38</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="0" t="n">
         <v>5.46</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="A362">
+    <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
         <v>4.39</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="0" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
-      <c r="A363">
+    <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
         <v>4.41</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="0" t="n">
         <v>5.56</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
-      <c r="A364">
+    <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
         <v>4.42</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="0" t="n">
         <v>5.58</v>
       </c>
     </row>
-    <row r="365" spans="1:3">
-      <c r="A365">
+    <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
         <v>4.43</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="0" t="n">
         <v>5.64</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
-      <c r="A366">
+    <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
         <v>4.44</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="0" t="n">
         <v>5.68</v>
       </c>
     </row>
-    <row r="367" spans="1:3">
-      <c r="A367">
+    <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
         <v>4.46</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="0" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
-      <c r="A368">
+    <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
         <v>4.47</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="0" t="n">
         <v>5.76</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
-      <c r="A369">
+    <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="n">
         <v>4.48</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="0" t="n">
         <v>5.77</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="A370">
+    <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="n">
         <v>4.49</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="0" t="n">
         <v>5.81</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
-      <c r="A371">
+    <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="0" t="n">
         <v>5.87</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
-      <c r="A372">
+    <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="n">
         <v>4.52</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="0" t="n">
         <v>5.89</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="A373">
+    <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="n">
         <v>4.53</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="0" t="n">
         <v>5.93</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
-      <c r="A374">
+    <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="n">
         <v>4.54</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="0" t="n">
         <v>5.97</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
-      <c r="A375">
+    <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
         <v>4.55</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="0" t="n">
         <v>6.01</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
-      <c r="A376">
+    <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
         <v>4.57</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="0" t="n">
         <v>6.05</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
-      <c r="A377">
+    <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
         <v>4.58</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="0" t="n">
         <v>6.11</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="A378">
+    <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
         <v>4.59</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="0" t="n">
         <v>6.15</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
-      <c r="A379">
+    <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="n">
         <v>4.6</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="0" t="n">
         <v>6.18</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
-      <c r="A380">
+    <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="n">
         <v>4.61</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="0" t="n">
         <v>2.74</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="0" t="n">
         <v>6.23</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
-      <c r="A381">
+    <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="n">
         <v>4.63</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="0" t="n">
         <v>6.26</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
-      <c r="A382">
+    <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="n">
         <v>4.64</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="0" t="n">
         <v>6.28</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
-      <c r="A383">
+    <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="n">
         <v>4.65</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="0" t="n">
         <v>6.32</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
-      <c r="A384">
+    <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="n">
         <v>4.66</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="0" t="n">
         <v>6.36</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
-      <c r="A385">
+    <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="n">
         <v>4.68</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="0" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
-      <c r="A386">
+    <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="n">
         <v>4.69</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="0" t="n">
         <v>6.45</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
-      <c r="A387">
+    <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="0" t="n">
         <v>6.49</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
-      <c r="A388">
+    <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="n">
         <v>4.71</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="0" t="n">
         <v>6.53</v>
       </c>
     </row>
-    <row r="389" spans="1:3">
-      <c r="A389">
+    <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="n">
         <v>4.72</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="0" t="n">
         <v>6.57</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
-      <c r="A390">
+    <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="n">
         <v>4.74</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="0" t="n">
         <v>6.61</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
-      <c r="A391">
+    <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="n">
         <v>4.75</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="0" t="n">
         <v>6.63</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
-      <c r="A392">
+    <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="n">
         <v>4.76</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="0" t="n">
         <v>6.67</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
-      <c r="A393">
+    <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="n">
         <v>4.77</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="0" t="n">
         <v>6.73</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
-      <c r="A394">
+    <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="n">
         <v>4.79</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="0" t="n">
         <v>6.77</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="A395">
+    <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="n">
         <v>4.8</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="0" t="n">
         <v>6.8</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
-      <c r="A396">
+    <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="n">
         <v>4.81</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="0" t="n">
         <v>6.85</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="A397">
+    <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="n">
         <v>4.82</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="0" t="n">
         <v>6.88</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
-      <c r="A398">
+    <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="n">
         <v>4.83</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="0" t="n">
         <v>6.92</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
-      <c r="A399">
+    <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="n">
         <v>4.85</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="0" t="n">
         <v>6.97</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
-      <c r="A400">
+    <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="n">
         <v>4.86</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="0" t="n">
         <v>2.75</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="0" t="n">
         <v>7.01</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
-      <c r="A401">
+    <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="n">
         <v>4.87</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="0" t="n">
         <v>7.04</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="A402">
+    <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="n">
         <v>4.88</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="0" t="n">
         <v>7.08</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
-      <c r="A403">
+    <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="n">
         <v>4.9</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="0" t="n">
         <v>7.1</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
-      <c r="A404">
+    <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="n">
         <v>4.91</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="0" t="n">
         <v>7.16</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
-      <c r="A405">
+    <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="n">
         <v>4.92</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="0" t="n">
         <v>7.2</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
-      <c r="A406">
+    <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="n">
         <v>4.93</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="0" t="n">
         <v>7.23</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
-      <c r="A407">
+    <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="n">
         <v>4.94</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="0" t="n">
         <v>7.27</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
-      <c r="A408">
+    <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="n">
         <v>4.96</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="0" t="n">
         <v>7.31</v>
       </c>
     </row>
-    <row r="409" spans="1:3">
-      <c r="A409">
+    <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="n">
         <v>4.97</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="0" t="n">
         <v>7.35</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
-      <c r="A410">
+    <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="n">
         <v>4.98</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="0" t="n">
         <v>7.41</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
-      <c r="A411">
+    <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="n">
         <v>4.99</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="0" t="n">
         <v>2.76</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="0" t="n">
         <v>7.45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>